--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AIMachineLearning\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4935AD84-647A-49A5-90FC-368DCCFC0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8D98E-94C4-41AD-AA30-E71F6A92A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{81ED2CF9-FBEF-4288-8020-87E195B65490}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81ED2CF9-FBEF-4288-8020-87E195B65490}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Level</t>
   </si>
@@ -59,30 +59,12 @@
     <t>Conditional Retrieval</t>
   </si>
   <si>
-    <t>Get the total number of orders placed.</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(*) FROM orders;</t>
-  </si>
-  <si>
-    <t>Orders table has columns: id, user_id, order_date, total_amount.</t>
-  </si>
-  <si>
     <t>Aggregation</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Find the number of orders placed by each user.</t>
-  </si>
-  <si>
-    <t>SELECT user_id, COUNT(*) FROM orders GROUP BY user_id;</t>
-  </si>
-  <si>
-    <t>Orders table with multiple entries for some user_ids.</t>
-  </si>
-  <si>
     <t>Group By</t>
   </si>
   <si>
@@ -213,6 +195,18 @@
   </si>
   <si>
     <t>SELECT * FROM [dbo].[tbl_project] WHERE FromDate &gt; '2024-04-01'</t>
+  </si>
+  <si>
+    <t>Find number of times the temperature is higher than 25 degree Celsius in May 2024</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS 'Higher_Temperature_Count' FROM [dbo].[tbl_data] WHERE temperature &gt; 25 AND enqueuedTime_Stamp &gt;= '2024-05-01' AND enqueuedTime_Stamp &lt; '2024-06-01'</t>
+  </si>
+  <si>
+    <t>Find number of records captured by each device in April 2024</t>
+  </si>
+  <si>
+    <t>SELECT D.title AS 'Device Name', COUNT(*) AS 'Number of Records' FROM [dbo].[tbl_data] DA INNER JOIN dbo.tbl_devices D ON DA.device_Id = D.deviceID WHERE DA.enqueuedTime_Stamp &gt;= '2024-04-01' AND DA.enqueuedTime_Stamp &lt; '2024-05-01' GROUP BY D.title;</t>
   </si>
 </sst>
 </file>
@@ -293,28 +287,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -357,6 +329,28 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -371,13 +365,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C60F2DF-FFD2-4F66-AB66-C06791E532FD}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C60F2DF-FFD2-4F66-AB66-C06791E532FD}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F13" xr:uid="{3C60F2DF-FFD2-4F66-AB66-C06791E532FD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6526062C-E7CC-4700-84F5-F39DE59DA567}" name="Level" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9F22052F-5489-4E05-B6B1-61480BC38E82}" name="Question" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DF7BF67D-8F34-4CFD-BE77-DFECE7E7C13E}" name="SQL Query" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8D1BAA5A-B905-4FD8-9E7A-155DCDED0B50}" name="Generated Query" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6526062C-E7CC-4700-84F5-F39DE59DA567}" name="Level" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9F22052F-5489-4E05-B6B1-61480BC38E82}" name="Question" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DF7BF67D-8F34-4CFD-BE77-DFECE7E7C13E}" name="SQL Query" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8D1BAA5A-B905-4FD8-9E7A-155DCDED0B50}" name="Generated Query" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E44E8ABE-5C5C-48C9-9486-1AA61EE95D10}" name="Type of Analysis" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{82CB8D9E-29AB-48DE-80A5-7EE51F7B4196}" name="Observation" dataDxfId="0"/>
   </tableColumns>
@@ -704,14 +698,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13ABA17-53C1-46B6-AD8F-B196F31BFC8F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -727,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8">
@@ -741,19 +736,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2">
@@ -761,198 +756,202 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="115.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="172.8">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.6">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="52.8">
       <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="92.4">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="66">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="43.2">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="52.8">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="52.8">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="79.2">
       <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1"/>
     </row>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88458E08-F90D-417C-A07B-AB6D6EB1E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="13740" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="TestCase"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Level</t>
   </si>
@@ -85,114 +105,74 @@
     <t>Group By</t>
   </si>
   <si>
-    <t>Retrieve the order ID and the name of the user who placed the order.</t>
-  </si>
-  <si>
-    <t>SELECT orders.id, users.name FROM orders JOIN users ON orders.user_id = users.id;</t>
-  </si>
-  <si>
-    <t>Users and Orders tables with matching user_id.</t>
-  </si>
-  <si>
-    <t>Join</t>
-  </si>
-  <si>
-    <t>List the product names and the total quantity ordered for each product.</t>
-  </si>
-  <si>
-    <t>SELECT products.name, SUM(order_items.quantity) FROM order_items JOIN products ON order_items.product_id = products.id GROUP BY products.name;</t>
-  </si>
-  <si>
-    <t>Products and Order_Items tables with product_id matching.</t>
-  </si>
-  <si>
-    <t>Join and Aggregation</t>
-  </si>
-  <si>
     <t>Hard</t>
   </si>
   <si>
-    <t>Find the names of users who have placed more than 5 orders.</t>
-  </si>
-  <si>
-    <t>SELECT name FROM users WHERE id IN (SELECT user_id FROM orders GROUP BY user_id HAVING COUNT(*) &gt; 5);</t>
-  </si>
-  <si>
-    <t>Users with more than 5 orders in Orders table.</t>
-  </si>
-  <si>
-    <t>Subquery and Group By</t>
-  </si>
-  <si>
-    <t>Update the status of all orders placed before 2021 to 'archived'.</t>
-  </si>
-  <si>
-    <t>UPDATE orders SET status = 'archived' WHERE order_date &lt; '2021-01-01';</t>
-  </si>
-  <si>
-    <t>Orders table with order_date before and after 2021-01-01.</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Delete all users who have not placed any orders.</t>
-  </si>
-  <si>
-    <t>DELETE FROM users WHERE id NOT IN (SELECT user_id FROM orders);</t>
-  </si>
-  <si>
-    <t>Users table and Orders table, with some users having no orders.</t>
-  </si>
-  <si>
-    <t>Delete with Subquery</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>Get the average order value for each user.</t>
-  </si>
-  <si>
-    <t>SELECT user_id, AVG(total_amount) AS average_order_value FROM orders GROUP BY user_id;</t>
-  </si>
-  <si>
-    <t>Orders table with total_amount for different user_ids.</t>
-  </si>
-  <si>
-    <t>Aggregation and Group By</t>
-  </si>
-  <si>
-    <t>Find the users who have their birthdays today.</t>
-  </si>
-  <si>
-    <t>SELECT name FROM users WHERE DATE_FORMAT(birthday, '%m-%d') = DATE_FORMAT(NOW(), '%m-%d');</t>
-  </si>
-  <si>
-    <t>Users table with birthday column having today's date.</t>
-  </si>
-  <si>
-    <t>Date Function</t>
-  </si>
-  <si>
-    <t>Find all users whose names start with 'A'.</t>
-  </si>
-  <si>
-    <t>SELECT name FROM users WHERE name LIKE 'A%';</t>
-  </si>
-  <si>
-    <t>Users table with names starting with 'A' and other characters.</t>
-  </si>
-  <si>
-    <t>String Function</t>
+    <t>Retrieve all historical sales data for the year 2023.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM sales WHERE YEAR(order_date) = 2023;</t>
+  </si>
+  <si>
+    <t>Historical Analysis</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>List all products and their prices in alphabetical order by product name.</t>
+  </si>
+  <si>
+    <t>SELECT product_name, price FROM products ORDER BY product_name ASC;</t>
+  </si>
+  <si>
+    <t>Descriptive Analysis</t>
+  </si>
+  <si>
+    <t>Count the number of customers who made purchases in April 2024.</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT customer_id) AS 'Customer_Count' FROM orders WHERE order_date &gt;= '2024-04-01' AND order_date &lt; '2024-05-01';</t>
+  </si>
+  <si>
+    <t>Diagnostic Analysis</t>
+  </si>
+  <si>
+    <t>Calculate the average order amount per customer in the past 6 months.</t>
+  </si>
+  <si>
+    <t>SELECT customer_id, AVG(order_amount) AS 'Average_Order_Amount' FROM orders WHERE order_date &gt;= DATEADD(month, -6, GETDATE()) GROUP BY customer_id;</t>
+  </si>
+  <si>
+    <t>Identify products that are frequently purchased together based on co-occurrence in orders.</t>
+  </si>
+  <si>
+    <t>sql SELECT p1.product_name, p2.product_name, COUNT(*) AS 'Co-occurrence_Count' FROM order_details od1 INNER JOIN order_details od2 ON od1.order_id = od2.order_id AND od1.product_id &lt; od2.product_id INNER JOIN products p1 ON od1.product_id = p1.product_id INNER JOIN products p2 ON od2.product_id = p2.product_id GROUP BY p1.product_name, p2.product_name ORDER BY Co-occurrence_Count DESC;</t>
+  </si>
+  <si>
+    <t>Predictive Analysis</t>
+  </si>
+  <si>
+    <t>Forecast sales for the next quarter using historical data.</t>
+  </si>
+  <si>
+    <t>sql SELECT DATEADD(quarter, 1, MAX(order_date)) AS 'Forecast_Start_Date', SUM(order_amount) AS 'Forecasted_Sales' FROM sales WHERE order_date &gt;= DATEADD(quarter, -1, GETDATE()) GROUP BY DATEADD(quarter, 1, order_date);</t>
+  </si>
+  <si>
+    <t>Determine factors influencing customer churn based on demographic and purchase history data.</t>
+  </si>
+  <si>
+    <t>sql SELECT demographic_info, AVG(churn_status) AS 'Churn_Rate' FROM customer_data GROUP BY demographic_info ORDER BY Churn_Rate DESC;</t>
+  </si>
+  <si>
+    <t>gurh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,58 +227,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3619500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E8D3D1-2C89-D149-4924-751A71340EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8715375" y="3895725"/>
+          <a:ext cx="6096000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F13" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn name="Level" id="1"/>
-    <tableColumn name="Question" id="2"/>
-    <tableColumn name="SQL Query" id="3"/>
-    <tableColumn name="Generated Query" id="4"/>
-    <tableColumn name="Type of Analysis" id="5"/>
-    <tableColumn name="Observation" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SQL Query"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Generated Query"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Analysis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observation"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -307,10 +353,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -348,71 +394,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,7 +486,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -463,11 +509,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -476,13 +522,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,7 +538,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -501,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -518,10 +564,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -586,25 +632,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="7" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57" customFormat="1" s="1">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -644,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="82.5" customFormat="1" s="1">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="210" customFormat="1" s="1">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -684,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="299.25" customFormat="1" s="1">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -703,155 +751,153 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57" customFormat="1" s="1">
-      <c r="A6" s="3" t="s">
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="66" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="111" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="168.6" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="90" customFormat="1" s="1">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="66" customFormat="1" s="1">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="86.4">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="82.5" customFormat="1" s="1">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="82.5" customFormat="1" s="1">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="69.75" customFormat="1" s="1">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="78" customFormat="1" s="1">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="69.75" customFormat="1" s="1">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDB520-288F-4179-A326-82E7587ECD86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88458E08-F90D-417C-A07B-AB6D6EB1E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B399794-B3F3-4C42-93F5-F6C0F7734856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="TestForecase-ARMAModel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={51FF199E-738F-4AB4-89E2-F2C88EC3DBA1}</author>
+  </authors>
+  <commentList>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{51FF199E-738F-4AB4-89E2-F2C88EC3DBA1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The MAE of 1.97 indicates a relatively accurate forecast for an ARIMA model. Generally, a lower MAE is better, and a perfect forecast would have an MAE of 0.
+Here are some benchmarks for interpreting MAE in time series forecasting:
+An MAE less than 5% of the average value in the data series is considered highly accurate.
+An MAE between 5% and 10% of the average value is considered accurate.
+An MAE between 10% and 20% of the average value is considered reasonably accurate.
+An MAE greater than 20% of the average value is considered inaccurate.
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Level</t>
   </si>
@@ -63,9 +87,6 @@
     <t>SELECT title FROM tbl_client;</t>
   </si>
   <si>
-    <t>SELECT title AS 'Client Name' FROM dbo.tbl_client"</t>
-  </si>
-  <si>
     <t>Basic Retrieval</t>
   </si>
   <si>
@@ -78,9 +99,6 @@
     <t>SELECT projectDesc FROM tbl_project WHERE FromDate &gt; '2024-04-01';</t>
   </si>
   <si>
-    <t>SELECT * FROM [dbo].[tbl_project] WHERE FromDate &gt; '2024-04-01'</t>
-  </si>
-  <si>
     <t>Conditional Retrieval</t>
   </si>
   <si>
@@ -108,71 +126,59 @@
     <t>Hard</t>
   </si>
   <si>
-    <t>Retrieve all historical sales data for the year 2023.</t>
-  </si>
-  <si>
-    <t>SELECT * FROM sales WHERE YEAR(order_date) = 2023;</t>
-  </si>
-  <si>
-    <t>Historical Analysis</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>List all products and their prices in alphabetical order by product name.</t>
-  </si>
-  <si>
-    <t>SELECT product_name, price FROM products ORDER BY product_name ASC;</t>
-  </si>
-  <si>
     <t>Descriptive Analysis</t>
   </si>
   <si>
-    <t>Count the number of customers who made purchases in April 2024.</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(DISTINCT customer_id) AS 'Customer_Count' FROM orders WHERE order_date &gt;= '2024-04-01' AND order_date &lt; '2024-05-01';</t>
-  </si>
-  <si>
     <t>Diagnostic Analysis</t>
   </si>
   <si>
-    <t>Calculate the average order amount per customer in the past 6 months.</t>
-  </si>
-  <si>
-    <t>SELECT customer_id, AVG(order_amount) AS 'Average_Order_Amount' FROM orders WHERE order_date &gt;= DATEADD(month, -6, GETDATE()) GROUP BY customer_id;</t>
-  </si>
-  <si>
-    <t>Identify products that are frequently purchased together based on co-occurrence in orders.</t>
-  </si>
-  <si>
-    <t>sql SELECT p1.product_name, p2.product_name, COUNT(*) AS 'Co-occurrence_Count' FROM order_details od1 INNER JOIN order_details od2 ON od1.order_id = od2.order_id AND od1.product_id &lt; od2.product_id INNER JOIN products p1 ON od1.product_id = p1.product_id INNER JOIN products p2 ON od2.product_id = p2.product_id GROUP BY p1.product_name, p2.product_name ORDER BY Co-occurrence_Count DESC;</t>
-  </si>
-  <si>
     <t>Predictive Analysis</t>
   </si>
   <si>
-    <t>Forecast sales for the next quarter using historical data.</t>
-  </si>
-  <si>
-    <t>sql SELECT DATEADD(quarter, 1, MAX(order_date)) AS 'Forecast_Start_Date', SUM(order_amount) AS 'Forecasted_Sales' FROM sales WHERE order_date &gt;= DATEADD(quarter, -1, GETDATE()) GROUP BY DATEADD(quarter, 1, order_date);</t>
-  </si>
-  <si>
-    <t>Determine factors influencing customer churn based on demographic and purchase history data.</t>
-  </si>
-  <si>
     <t>sql SELECT demographic_info, AVG(churn_status) AS 'Churn_Rate' FROM customer_data GROUP BY demographic_info ORDER BY Churn_Rate DESC;</t>
   </si>
   <si>
-    <t>gurh</t>
+    <t>Calculate average temperature for each device in Mar 2024</t>
+  </si>
+  <si>
+    <t>SELECT D.deviceID, AVG(D.temperature) AS 'Average Temperature' FROM [dbo].[tbl_data] D WHERE D.enqueuedTime_Stamp &gt;= '2024-03-01' AND D.enqueuedTime_Stamp &lt; '2024-04-01' GROUP BY D.deviceI</t>
+  </si>
+  <si>
+    <t>SELECT R.room AS 'Room Name', AVG(D.temperature) AS 'Average Temperature' FROM dbo.tbl_room R INNER JOIN dbo.tbl_data D ON R.id = D.roomID  GROUP BY R.room HAVING AVG(D.temperature) &gt; 25</t>
+  </si>
+  <si>
+    <t>Identify rooms those have average temperature above 25</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>MAE(Mean Absolute Error)</t>
+  </si>
+  <si>
+    <t>Give me 15 days forecast analysis based on historical data</t>
+  </si>
+  <si>
+    <t>Pandas Dataframe</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +205,25 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -227,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,6 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,23 +291,67 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1724025</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3619500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170131</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E8D3D1-2C89-D149-4924-751A71340EB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407742A5-8843-4DCA-9CF5-E219953B56E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="590550"/>
+          <a:ext cx="4208731" cy="7074253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B07B8F-E81F-45C6-8105-75D05C2F5B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -296,7 +360,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -310,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8715375" y="3895725"/>
-          <a:ext cx="6096000" cy="4562475"/>
+          <a:off x="8963025" y="552450"/>
+          <a:ext cx="6096000" cy="4560570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -333,9 +397,15 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Khanh Nguyen" id="{FA834D17-38C7-4AE1-9157-CC11719F148C}" userId="S::Khanh.Nguyen@GlobalDWS.com::c9082059-cb1c-4fe5-8a95-aa37cf2cfe71" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
@@ -631,15 +701,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D17" dT="2024-06-26T16:57:27.15" personId="{FA834D17-38C7-4AE1-9157-CC11719F148C}" id="{51FF199E-738F-4AB4-89E2-F2C88EC3DBA1}">
+    <text xml:space="preserve">The MAE of 1.97 indicates a relatively accurate forecast for an ARIMA model. Generally, a lower MAE is better, and a perfect forecast would have an MAE of 0.
+Here are some benchmarks for interpreting MAE in time series forecasting:
+An MAE less than 5% of the average value in the data series is considered highly accurate.
+An MAE between 5% and 10% of the average value is considered accurate.
+An MAE between 10% and 20% of the average value is considered reasonably accurate.
+An MAE greater than 20% of the average value is considered inaccurate.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -683,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
@@ -697,19 +781,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
@@ -717,187 +801,382 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="208.8" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86.4">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="66" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="111" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="168.6" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="86.4">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDB520-288F-4179-A326-82E7587ECD86}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDB520-288F-4179-A326-82E7587ECD86}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B2">
+        <v>25.127862</v>
+      </c>
+      <c r="C2">
+        <v>25.31926</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B2-C2)</f>
+        <v>0.19139799999999951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B3">
+        <v>25.126518999999998</v>
+      </c>
+      <c r="C3">
+        <v>23.586956000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">ABS(B3-C3)</f>
+        <v>1.5395629999999976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B4">
+        <v>25.125176</v>
+      </c>
+      <c r="C4">
+        <v>25.896975000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.77179900000000146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>45094</v>
+      </c>
+      <c r="B5">
+        <v>25.123832</v>
+      </c>
+      <c r="C5">
+        <v>19.691673000000002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5.4321589999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>45095</v>
+      </c>
+      <c r="B6">
+        <v>25.122489000000002</v>
+      </c>
+      <c r="C6">
+        <v>25.060058999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.243000000000265E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B7">
+        <v>25.121146</v>
+      </c>
+      <c r="C7">
+        <v>23.281803</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.8393429999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>45097</v>
+      </c>
+      <c r="B8">
+        <v>25.119803000000001</v>
+      </c>
+      <c r="C8">
+        <v>25.836179999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.71637699999999782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <v>45098</v>
+      </c>
+      <c r="B9">
+        <v>25.118459999999999</v>
+      </c>
+      <c r="C9">
+        <v>19.042604000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.0758559999999981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B10">
+        <v>25.117117</v>
+      </c>
+      <c r="C10">
+        <v>24.951796999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.16532000000000124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B11">
+        <v>25.115773999999998</v>
+      </c>
+      <c r="C11">
+        <v>23.046249</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.0695249999999987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <v>45101</v>
+      </c>
+      <c r="B12">
+        <v>25.114432000000001</v>
+      </c>
+      <c r="C12">
+        <v>25.658906999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.54447499999999849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
+        <v>45102</v>
+      </c>
+      <c r="B13">
+        <v>25.113088999999999</v>
+      </c>
+      <c r="C13">
+        <v>24.672291000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.44079799999999736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
+        <v>45103</v>
+      </c>
+      <c r="B14">
+        <v>25.111746</v>
+      </c>
+      <c r="C14">
+        <v>18.348258999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6.7634870000000014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <v>45104</v>
+      </c>
+      <c r="B15">
+        <v>25.110403999999999</v>
+      </c>
+      <c r="C15">
+        <v>22.601723</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.5086809999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B16">
+        <v>25.109061000000001</v>
+      </c>
+      <c r="C16">
+        <v>25.562100999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.45303999999999789</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="9">
+        <f>AVERAGE(D2:D16)</f>
+        <v>1.9716167333333325</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B399794-B3F3-4C42-93F5-F6C0F7734856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F6975-0989-41E8-91E1-719CECF75082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Level</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Predictive Analysis</t>
   </si>
   <si>
-    <t>sql SELECT demographic_info, AVG(churn_status) AS 'Churn_Rate' FROM customer_data GROUP BY demographic_info ORDER BY Churn_Rate DESC;</t>
-  </si>
-  <si>
     <t>Calculate average temperature for each device in Mar 2024</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>SELECT R.room AS 'Room Name', AVG(D.temperature) AS 'Average Temperature' FROM dbo.tbl_room R INNER JOIN dbo.tbl_data D ON R.id = D.roomID  GROUP BY R.room HAVING AVG(D.temperature) &gt; 25</t>
   </si>
   <si>
-    <t>Identify rooms those have average temperature above 25</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
@@ -165,20 +159,23 @@
     <t>MAE(Mean Absolute Error)</t>
   </si>
   <si>
-    <t>Give me 15 days forecast analysis based on historical data</t>
-  </si>
-  <si>
     <t>Pandas Dataframe</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>which room in GlobalDWS have the highest temperature in April 2024</t>
+  </si>
+  <si>
+    <t>Give me 15 days temperature forecast analysis based on historical data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +202,8 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,9 +248,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -270,11 +264,23 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -404,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
@@ -722,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -733,176 +739,173 @@
     <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="208.8" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="208.8" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="86.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDB520-288F-4179-A326-82E7587ECD86}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -931,20 +934,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>45091</v>
       </c>
       <c r="B2">
@@ -959,7 +962,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>45092</v>
       </c>
       <c r="B3">
@@ -974,7 +977,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>45093</v>
       </c>
       <c r="B4">
@@ -989,7 +992,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>45094</v>
       </c>
       <c r="B5">
@@ -1004,7 +1007,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>45095</v>
       </c>
       <c r="B6">
@@ -1019,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>45096</v>
       </c>
       <c r="B7">
@@ -1034,7 +1037,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>45097</v>
       </c>
       <c r="B8">
@@ -1049,7 +1052,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>45098</v>
       </c>
       <c r="B9">
@@ -1064,7 +1067,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>45099</v>
       </c>
       <c r="B10">
@@ -1079,7 +1082,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>45100</v>
       </c>
       <c r="B11">
@@ -1094,7 +1097,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>45101</v>
       </c>
       <c r="B12">
@@ -1109,7 +1112,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>45102</v>
       </c>
       <c r="B13">
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>45103</v>
       </c>
       <c r="B14">
@@ -1139,7 +1142,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>45104</v>
       </c>
       <c r="B15">
@@ -1154,7 +1157,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>45105</v>
       </c>
       <c r="B16">
@@ -1169,7 +1172,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f>AVERAGE(D2:D16)</f>
         <v>1.9716167333333325</v>
       </c>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F6975-0989-41E8-91E1-719CECF75082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3EF8B-9083-413F-ABE8-FADE10365F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Level</t>
   </si>
@@ -81,45 +81,21 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Give me all the name of the clients</t>
-  </si>
-  <si>
-    <t>SELECT title FROM tbl_client;</t>
-  </si>
-  <si>
     <t>Basic Retrieval</t>
   </si>
   <si>
     <t xml:space="preserve">Pass </t>
   </si>
   <si>
-    <t>Find projects created after April 2024</t>
-  </si>
-  <si>
-    <t>SELECT projectDesc FROM tbl_project WHERE FromDate &gt; '2024-04-01';</t>
-  </si>
-  <si>
     <t>Conditional Retrieval</t>
   </si>
   <si>
-    <t>Find number of times the temperature is higher than 25 degree Celsius in May 2024</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(*) AS 'Higher_Temperature_Count' FROM [dbo].[tbl_data] WHERE temperature &gt; 25 AND enqueuedTime_Stamp &gt;= '2024-05-01' AND enqueuedTime_Stamp &lt; '2024-06-01'</t>
-  </si>
-  <si>
     <t>Aggregation</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Find number of records captured by each device in April 2024</t>
-  </si>
-  <si>
-    <t>SELECT D.title AS 'Device Name', COUNT(*) AS 'Number of Records' FROM [dbo].[tbl_data] DA INNER JOIN dbo.tbl_devices D ON DA.device_Id = D.deviceID WHERE DA.enqueuedTime_Stamp &gt;= '2024-04-01' AND DA.enqueuedTime_Stamp &lt; '2024-05-01' GROUP BY D.title;</t>
-  </si>
-  <si>
     <t>Group By</t>
   </si>
   <si>
@@ -138,15 +114,6 @@
     <t>Predictive Analysis</t>
   </si>
   <si>
-    <t>Calculate average temperature for each device in Mar 2024</t>
-  </si>
-  <si>
-    <t>SELECT D.deviceID, AVG(D.temperature) AS 'Average Temperature' FROM [dbo].[tbl_data] D WHERE D.enqueuedTime_Stamp &gt;= '2024-03-01' AND D.enqueuedTime_Stamp &lt; '2024-04-01' GROUP BY D.deviceI</t>
-  </si>
-  <si>
-    <t>SELECT R.room AS 'Room Name', AVG(D.temperature) AS 'Average Temperature' FROM dbo.tbl_room R INNER JOIN dbo.tbl_data D ON R.id = D.roomID  GROUP BY R.room HAVING AVG(D.temperature) &gt; 25</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
@@ -165,10 +132,52 @@
     <t>NA</t>
   </si>
   <si>
-    <t>which room in GlobalDWS have the highest temperature in April 2024</t>
-  </si>
-  <si>
     <t>Give me 15 days temperature forecast analysis based on historical data</t>
+  </si>
+  <si>
+    <t>What is the average, highest, and lowest temperature in globaldws in April 2024</t>
+  </si>
+  <si>
+    <t>SELECT AVG(temperature) AS 'Average Temperature', MAX(temperature) AS 'Highest Temperature', MIN(temperature) AS 'Lowest Temperature' FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-04-01' AND '2024-04-30'</t>
+  </si>
+  <si>
+    <t>How many rooms in contoso are with average temperature higher than 21 degree</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT room_name) AS NumberOfRooms FROM health_data_view WHERE client_name = 'Contoso' AND temperature &gt; 21 GROUP BY room_name HAVING AVG(temperature) &gt; 21</t>
+  </si>
+  <si>
+    <t>Provided that if the average temperature lower than 27 in the last 3 days, an email notification will be triggered. How many time email should be triggered in March 24 for GlobalDWS</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS EmailTriggers FROM (SELECT AVG(temperature) AS AvgTemperature, CAST(updated_time AS DATE) AS DateOnly FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-03-01' AND '2024-03-31' GROUP BY CAST(updated_time AS DATE) HAVING AVG(temperature) &lt; 27) AS SubQuery</t>
+  </si>
+  <si>
+    <t>In 2024, between GlobalDWS and Contoso which had higher co2 level</t>
+  </si>
+  <si>
+    <t>SELECT AVG(co2) AS Average_CO2 FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-01-01' AND '2024-12-31'; SELECT AVG(co2) AS Average_CO2 FROM health_data_view WHERE client_name = 'Contoso' AND updated_time BETWEEN '2024-01-01' AND '2024-12-31';</t>
+  </si>
+  <si>
+    <t>What is the trend of temperature in globaldws in April 2024</t>
+  </si>
+  <si>
+    <t>SELECT CAST(updated_time AS DATE) AS Date, AVG(temperature) AS AverageTemperature FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-04-01' AND '2024-04-30' GROUP BY CAST(updated_time AS DATE) ORDER BY Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Descriptive Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Retrieval	</t>
+  </si>
+  <si>
+    <t>Comparative Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Trend Analysis</t>
+  </si>
+  <si>
+    <t>Diagnose the cause of a significant temperature drop in Contoso in the past year.</t>
   </si>
 </sst>
 </file>
@@ -410,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
@@ -726,18 +735,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -767,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
@@ -787,19 +796,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
@@ -807,105 +816,94 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="43.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="208.8" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -934,16 +932,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3EF8B-9083-413F-ABE8-FADE10365F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993705D-62CA-4897-8AA5-F9975475AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Level</t>
   </si>
@@ -178,6 +178,27 @@
   </si>
   <si>
     <t>Diagnose the cause of a significant temperature drop in Contoso in the past year.</t>
+  </si>
+  <si>
+    <t>Production Performance</t>
+  </si>
+  <si>
+    <t>21s</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>what is the average co2 for contoso ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT AVG(co2) AS Average_CO2 FROM health_data_view WHERE client_name = 'Contoso' </t>
+  </si>
+  <si>
+    <t>9s</t>
+  </si>
+  <si>
+    <t>16s</t>
   </si>
 </sst>
 </file>
@@ -280,7 +301,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -419,15 +443,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SQL Query"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Generated Query"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Analysis"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observation"/>
+    <tableColumn id="7" xr3:uid="{89DD02F2-3EC6-4404-A2A1-CBDFB6F52C3B}" name="Production Performance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,10 +760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -749,6 +774,7 @@
     <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1">
@@ -770,16 +796,19 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>35</v>
@@ -790,119 +819,157 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993705D-62CA-4897-8AA5-F9975475AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA4FEB-FB21-4F98-805B-E0112F706BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>SELECT COUNT(*) AS EmailTriggers FROM (SELECT AVG(temperature) AS AvgTemperature, CAST(updated_time AS DATE) AS DateOnly FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-03-01' AND '2024-03-31' GROUP BY CAST(updated_time AS DATE) HAVING AVG(temperature) &lt; 27) AS SubQuery</t>
   </si>
   <si>
-    <t>In 2024, between GlobalDWS and Contoso which had higher co2 level</t>
-  </si>
-  <si>
     <t>SELECT AVG(co2) AS Average_CO2 FROM health_data_view WHERE client_name = 'GlobalDWS' AND updated_time BETWEEN '2024-01-01' AND '2024-12-31'; SELECT AVG(co2) AS Average_CO2 FROM health_data_view WHERE client_name = 'Contoso' AND updated_time BETWEEN '2024-01-01' AND '2024-12-31';</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>16s</t>
+  </si>
+  <si>
+    <t>Compare co2 level between GlobalDWS and Contoso in 2024 for the period both have data</t>
   </si>
 </sst>
 </file>
@@ -762,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="28.8">
@@ -805,13 +805,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
@@ -834,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -843,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
@@ -857,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
@@ -897,13 +897,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -921,13 +921,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA4FEB-FB21-4F98-805B-E0112F706BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF6233-E3B0-4C27-B331-674462943D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Level</t>
   </si>
@@ -198,14 +198,23 @@
     <t>16s</t>
   </si>
   <si>
-    <t>Compare co2 level between GlobalDWS and Contoso in 2024 for the period both have data</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-1106</t>
+  </si>
+  <si>
+    <t>gpt-4-turbo-2024-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare co2 level between GlobalDWS and Contoso in 2024 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +240,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF353740"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,6 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +459,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SQL Query"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Generated Query"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Analysis"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observation"/>
+    <tableColumn id="8" xr3:uid="{F84FD411-3B3E-4E68-B61F-70F5FE2627D3}" name="Model"/>
     <tableColumn id="7" xr3:uid="{89DD02F2-3EC6-4404-A2A1-CBDFB6F52C3B}" name="Production Performance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -760,10 +777,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -774,10 +791,11 @@
     <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -797,10 +815,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="28.8">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -819,11 +840,14 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -842,11 +866,14 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="82.5" customHeight="1">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -865,11 +892,14 @@
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="210" customHeight="1">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="210" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -888,16 +918,19 @@
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="299.25" customHeight="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -911,12 +944,15 @@
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -935,11 +971,12 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3"/>
+      <c r="H7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="69.75" customHeight="1">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -955,8 +992,9 @@
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="88.8" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,6 +1010,7 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF6233-E3B0-4C27-B331-674462943D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF98C7-9428-4352-A251-4EDAF36DAA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Level</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t xml:space="preserve">Compare co2 level between GlobalDWS and Contoso in 2024 </t>
+  </si>
+  <si>
+    <t>gpt-4o-mini</t>
+  </si>
+  <si>
+    <t>16.8s</t>
   </si>
 </sst>
 </file>
@@ -459,8 +465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
@@ -777,10 +783,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -847,47 +853,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:12" s="1" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
@@ -896,50 +890,50 @@
         <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="210" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>48</v>
+      <c r="G5" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="299.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="210" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>8</v>
@@ -947,70 +941,96 @@
       <c r="G6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1">
-        <v>12</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="299.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="88.8" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="88.8" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF98C7-9428-4352-A251-4EDAF36DAA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CA8FE-19DD-4488-B933-E9515CA6AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Level</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Diagnose the cause of a significant temperature drop in Contoso in the past year.</t>
   </si>
   <si>
-    <t>Production Performance</t>
-  </si>
-  <si>
     <t>21s</t>
   </si>
   <si>
@@ -213,7 +210,19 @@
     <t>gpt-4o-mini</t>
   </si>
   <si>
-    <t>16.8s</t>
+    <t>Server Performance</t>
+  </si>
+  <si>
+    <t>9-11.50s</t>
+  </si>
+  <si>
+    <t>10-13.26s</t>
+  </si>
+  <si>
+    <t>11s-14.26s</t>
+  </si>
+  <si>
+    <t>12s</t>
   </si>
 </sst>
 </file>
@@ -465,8 +474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
@@ -475,7 +484,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Analysis"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observation"/>
     <tableColumn id="8" xr3:uid="{F84FD411-3B3E-4E68-B61F-70F5FE2627D3}" name="Model"/>
-    <tableColumn id="7" xr3:uid="{89DD02F2-3EC6-4404-A2A1-CBDFB6F52C3B}" name="Production Performance" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{89DD02F2-3EC6-4404-A2A1-CBDFB6F52C3B}" name="Server Performance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -783,10 +792,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -821,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="28.8">
@@ -832,10 +841,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
@@ -847,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -861,7 +870,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>51</v>
@@ -887,150 +896,202 @@
         <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="210" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="210" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="79.8" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="299.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="299.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="121.2" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="88.8" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="88.8" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Documents\GitHub\IntelligenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CA8FE-19DD-4488-B933-E9515CA6AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2BF48-C885-4790-80F4-32D2E818BF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Level</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>12s</t>
+  </si>
+  <si>
+    <t>11s</t>
+  </si>
+  <si>
+    <t>19s</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
@@ -792,10 +798,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1030,7 +1036,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="165" customHeight="1">
@@ -1052,46 +1063,62 @@
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="106.8" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="88.8" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="88.8" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
